--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_EditProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1536E-A06B-40C2-B371-FCD0C7828816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7683CB3-69DC-4711-9C9F-67ECC6810351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{74A59986-FA09-446F-B0A5-CA6F1FF2E236}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -113,12 +113,33 @@
   </si>
   <si>
     <t>Adarsh Thakur</t>
+  </si>
+  <si>
+    <t>verifyElementPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>date_last_proc</t>
+  </si>
+  <si>
+    <t>verifyElementText</t>
+  </si>
+  <si>
+    <t>CurrentDate</t>
+  </si>
+  <si>
+    <t>getData=CurrentDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -217,6 +238,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89C741-D4CC-41CB-9D6E-2AC4A75F0B60}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,10 +676,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -667,14 +689,14 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -682,10 +704,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -699,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -713,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -721,6 +743,34 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68866127-9D29-4F5B-BFBA-F99D29AF5F92}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,9 +792,10 @@
     <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -760,8 +811,11 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -775,8 +829,12 @@
         <v>52525</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" s="6">
+        <v>7878</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_PcaGroupProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7683CB3-69DC-4711-9C9F-67ECC6810351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D95EE4-B92A-42BF-8741-544B22823D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{74A59986-FA09-446F-B0A5-CA6F1FF2E236}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74A59986-FA09-446F-B0A5-CA6F1FF2E236}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Keyword</t>
   </si>
@@ -113,33 +113,12 @@
   </si>
   <si>
     <t>Adarsh Thakur</t>
-  </si>
-  <si>
-    <t>verifyElementPresent</t>
-  </si>
-  <si>
-    <t>txt_last_proc_date</t>
-  </si>
-  <si>
-    <t>date_last_proc</t>
-  </si>
-  <si>
-    <t>verifyElementText</t>
-  </si>
-  <si>
-    <t>CurrentDate</t>
-  </si>
-  <si>
-    <t>getData=CurrentDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -238,7 +217,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89C741-D4CC-41CB-9D6E-2AC4A75F0B60}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,10 +654,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -689,14 +667,14 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -704,10 +682,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -721,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -735,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -744,45 +722,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68866127-9D29-4F5B-BFBA-F99D29AF5F92}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,10 +743,9 @@
     <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -811,11 +761,8 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -829,9 +776,6 @@
         <v>52525</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="6">
-        <v>7878</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
